--- a/excel/FolhaCod_ICD10_Amb.xlsx
+++ b/excel/FolhaCod_ICD10_Amb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>Data de Admissão</t>
   </si>
@@ -1067,6 +1067,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,15 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,33 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:CE152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="C36:D36"/>
+      <selection activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1874,35 +1874,35 @@
       <c r="AQ3" s="21"/>
       <c r="AR3" s="21"/>
       <c r="AS3" s="21"/>
-      <c r="AT3" s="150" t="s">
+      <c r="AT3" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" s="151"/>
-      <c r="AV3" s="151"/>
-      <c r="AW3" s="151"/>
-      <c r="AX3" s="151"/>
-      <c r="AY3" s="151"/>
-      <c r="AZ3" s="151"/>
-      <c r="BA3" s="151"/>
-      <c r="BB3" s="151"/>
-      <c r="BC3" s="151"/>
-      <c r="BD3" s="151"/>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="151"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="151"/>
-      <c r="BI3" s="151"/>
-      <c r="BJ3" s="151"/>
-      <c r="BK3" s="151"/>
-      <c r="BL3" s="151"/>
-      <c r="BM3" s="151"/>
-      <c r="BN3" s="151"/>
-      <c r="BO3" s="151"/>
-      <c r="BP3" s="151"/>
-      <c r="BQ3" s="151"/>
-      <c r="BR3" s="151"/>
-      <c r="BS3" s="151"/>
-      <c r="BT3" s="152"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="160"/>
+      <c r="BB3" s="160"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="160"/>
+      <c r="BI3" s="160"/>
+      <c r="BJ3" s="160"/>
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="160"/>
+      <c r="BN3" s="160"/>
+      <c r="BO3" s="160"/>
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="160"/>
+      <c r="BR3" s="160"/>
+      <c r="BS3" s="160"/>
+      <c r="BT3" s="161"/>
     </row>
     <row r="4" spans="2:73" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
@@ -1949,33 +1949,33 @@
       <c r="AQ4" s="21"/>
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
-      <c r="AT4" s="153"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="154"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="154"/>
-      <c r="BF4" s="154"/>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="154"/>
-      <c r="BM4" s="154"/>
-      <c r="BN4" s="154"/>
-      <c r="BO4" s="154"/>
-      <c r="BP4" s="154"/>
-      <c r="BQ4" s="154"/>
-      <c r="BR4" s="154"/>
-      <c r="BS4" s="154"/>
-      <c r="BT4" s="155"/>
+      <c r="AT4" s="162"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163"/>
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163"/>
+      <c r="BH4" s="163"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="163"/>
+      <c r="BO4" s="163"/>
+      <c r="BP4" s="163"/>
+      <c r="BQ4" s="163"/>
+      <c r="BR4" s="163"/>
+      <c r="BS4" s="163"/>
+      <c r="BT4" s="164"/>
     </row>
     <row r="5" spans="2:73" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
@@ -2028,33 +2028,33 @@
       <c r="AQ5" s="21"/>
       <c r="AR5" s="21"/>
       <c r="AS5" s="21"/>
-      <c r="AT5" s="153"/>
-      <c r="AU5" s="154"/>
-      <c r="AV5" s="154"/>
-      <c r="AW5" s="154"/>
-      <c r="AX5" s="154"/>
-      <c r="AY5" s="154"/>
-      <c r="AZ5" s="154"/>
-      <c r="BA5" s="154"/>
-      <c r="BB5" s="154"/>
-      <c r="BC5" s="154"/>
-      <c r="BD5" s="154"/>
-      <c r="BE5" s="154"/>
-      <c r="BF5" s="154"/>
-      <c r="BG5" s="154"/>
-      <c r="BH5" s="154"/>
-      <c r="BI5" s="154"/>
-      <c r="BJ5" s="154"/>
-      <c r="BK5" s="154"/>
-      <c r="BL5" s="154"/>
-      <c r="BM5" s="154"/>
-      <c r="BN5" s="154"/>
-      <c r="BO5" s="154"/>
-      <c r="BP5" s="154"/>
-      <c r="BQ5" s="154"/>
-      <c r="BR5" s="154"/>
-      <c r="BS5" s="154"/>
-      <c r="BT5" s="155"/>
+      <c r="AT5" s="162"/>
+      <c r="AU5" s="163"/>
+      <c r="AV5" s="163"/>
+      <c r="AW5" s="163"/>
+      <c r="AX5" s="163"/>
+      <c r="AY5" s="163"/>
+      <c r="AZ5" s="163"/>
+      <c r="BA5" s="163"/>
+      <c r="BB5" s="163"/>
+      <c r="BC5" s="163"/>
+      <c r="BD5" s="163"/>
+      <c r="BE5" s="163"/>
+      <c r="BF5" s="163"/>
+      <c r="BG5" s="163"/>
+      <c r="BH5" s="163"/>
+      <c r="BI5" s="163"/>
+      <c r="BJ5" s="163"/>
+      <c r="BK5" s="163"/>
+      <c r="BL5" s="163"/>
+      <c r="BM5" s="163"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="163"/>
+      <c r="BP5" s="163"/>
+      <c r="BQ5" s="163"/>
+      <c r="BR5" s="163"/>
+      <c r="BS5" s="163"/>
+      <c r="BT5" s="164"/>
     </row>
     <row r="6" spans="2:73" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
@@ -2107,33 +2107,33 @@
       <c r="AQ6" s="25"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
-      <c r="AT6" s="153"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="154"/>
-      <c r="AW6" s="154"/>
-      <c r="AX6" s="154"/>
-      <c r="AY6" s="154"/>
-      <c r="AZ6" s="154"/>
-      <c r="BA6" s="154"/>
-      <c r="BB6" s="154"/>
-      <c r="BC6" s="154"/>
-      <c r="BD6" s="154"/>
-      <c r="BE6" s="154"/>
-      <c r="BF6" s="154"/>
-      <c r="BG6" s="154"/>
-      <c r="BH6" s="154"/>
-      <c r="BI6" s="154"/>
-      <c r="BJ6" s="154"/>
-      <c r="BK6" s="154"/>
-      <c r="BL6" s="154"/>
-      <c r="BM6" s="154"/>
-      <c r="BN6" s="154"/>
-      <c r="BO6" s="154"/>
-      <c r="BP6" s="154"/>
-      <c r="BQ6" s="154"/>
-      <c r="BR6" s="154"/>
-      <c r="BS6" s="154"/>
-      <c r="BT6" s="155"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="163"/>
+      <c r="AV6" s="163"/>
+      <c r="AW6" s="163"/>
+      <c r="AX6" s="163"/>
+      <c r="AY6" s="163"/>
+      <c r="AZ6" s="163"/>
+      <c r="BA6" s="163"/>
+      <c r="BB6" s="163"/>
+      <c r="BC6" s="163"/>
+      <c r="BD6" s="163"/>
+      <c r="BE6" s="163"/>
+      <c r="BF6" s="163"/>
+      <c r="BG6" s="163"/>
+      <c r="BH6" s="163"/>
+      <c r="BI6" s="163"/>
+      <c r="BJ6" s="163"/>
+      <c r="BK6" s="163"/>
+      <c r="BL6" s="163"/>
+      <c r="BM6" s="163"/>
+      <c r="BN6" s="163"/>
+      <c r="BO6" s="163"/>
+      <c r="BP6" s="163"/>
+      <c r="BQ6" s="163"/>
+      <c r="BR6" s="163"/>
+      <c r="BS6" s="163"/>
+      <c r="BT6" s="164"/>
     </row>
     <row r="7" spans="2:73" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
@@ -2180,33 +2180,33 @@
       <c r="AQ7" s="21"/>
       <c r="AR7" s="21"/>
       <c r="AS7" s="21"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="157"/>
-      <c r="AV7" s="157"/>
-      <c r="AW7" s="157"/>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="157"/>
-      <c r="BE7" s="157"/>
-      <c r="BF7" s="157"/>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="157"/>
-      <c r="BN7" s="157"/>
-      <c r="BO7" s="157"/>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="158"/>
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="166"/>
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="166"/>
+      <c r="AY7" s="166"/>
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
+      <c r="BG7" s="166"/>
+      <c r="BH7" s="166"/>
+      <c r="BI7" s="166"/>
+      <c r="BJ7" s="166"/>
+      <c r="BK7" s="166"/>
+      <c r="BL7" s="166"/>
+      <c r="BM7" s="166"/>
+      <c r="BN7" s="166"/>
+      <c r="BO7" s="166"/>
+      <c r="BP7" s="166"/>
+      <c r="BQ7" s="166"/>
+      <c r="BR7" s="166"/>
+      <c r="BS7" s="166"/>
+      <c r="BT7" s="167"/>
     </row>
     <row r="8" spans="2:73" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
@@ -2282,79 +2282,79 @@
       <c r="BT8" s="21"/>
     </row>
     <row r="9" spans="2:73" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="145"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="145"/>
-      <c r="AQ9" s="145"/>
-      <c r="AR9" s="145"/>
-      <c r="AS9" s="145"/>
-      <c r="AT9" s="145"/>
-      <c r="AU9" s="145"/>
-      <c r="AV9" s="145"/>
-      <c r="AW9" s="145"/>
-      <c r="AX9" s="145"/>
-      <c r="AY9" s="145"/>
-      <c r="AZ9" s="145"/>
-      <c r="BA9" s="145"/>
-      <c r="BB9" s="145"/>
-      <c r="BC9" s="145"/>
-      <c r="BD9" s="145"/>
-      <c r="BE9" s="145"/>
-      <c r="BF9" s="145"/>
-      <c r="BG9" s="145"/>
-      <c r="BH9" s="145"/>
-      <c r="BI9" s="145"/>
-      <c r="BJ9" s="145"/>
-      <c r="BK9" s="145"/>
-      <c r="BL9" s="145"/>
-      <c r="BM9" s="145"/>
-      <c r="BN9" s="145"/>
-      <c r="BO9" s="145"/>
-      <c r="BP9" s="145"/>
-      <c r="BQ9" s="145"/>
-      <c r="BR9" s="145"/>
-      <c r="BS9" s="145"/>
-      <c r="BT9" s="146"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="157"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
+      <c r="AM9" s="157"/>
+      <c r="AN9" s="157"/>
+      <c r="AO9" s="157"/>
+      <c r="AP9" s="157"/>
+      <c r="AQ9" s="157"/>
+      <c r="AR9" s="157"/>
+      <c r="AS9" s="157"/>
+      <c r="AT9" s="157"/>
+      <c r="AU9" s="157"/>
+      <c r="AV9" s="157"/>
+      <c r="AW9" s="157"/>
+      <c r="AX9" s="157"/>
+      <c r="AY9" s="157"/>
+      <c r="AZ9" s="157"/>
+      <c r="BA9" s="157"/>
+      <c r="BB9" s="157"/>
+      <c r="BC9" s="157"/>
+      <c r="BD9" s="157"/>
+      <c r="BE9" s="157"/>
+      <c r="BF9" s="157"/>
+      <c r="BG9" s="157"/>
+      <c r="BH9" s="157"/>
+      <c r="BI9" s="157"/>
+      <c r="BJ9" s="157"/>
+      <c r="BK9" s="157"/>
+      <c r="BL9" s="157"/>
+      <c r="BM9" s="157"/>
+      <c r="BN9" s="157"/>
+      <c r="BO9" s="157"/>
+      <c r="BP9" s="157"/>
+      <c r="BQ9" s="157"/>
+      <c r="BR9" s="157"/>
+      <c r="BS9" s="157"/>
+      <c r="BT9" s="158"/>
     </row>
     <row r="10" spans="2:73" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
@@ -3007,79 +3007,79 @@
       <c r="BU18" s="42"/>
     </row>
     <row r="19" spans="2:73" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="145"/>
-      <c r="AM19" s="145"/>
-      <c r="AN19" s="145"/>
-      <c r="AO19" s="145"/>
-      <c r="AP19" s="145"/>
-      <c r="AQ19" s="145"/>
-      <c r="AR19" s="145"/>
-      <c r="AS19" s="145"/>
-      <c r="AT19" s="145"/>
-      <c r="AU19" s="145"/>
-      <c r="AV19" s="145"/>
-      <c r="AW19" s="145"/>
-      <c r="AX19" s="145"/>
-      <c r="AY19" s="145"/>
-      <c r="AZ19" s="145"/>
-      <c r="BA19" s="145"/>
-      <c r="BB19" s="145"/>
-      <c r="BC19" s="145"/>
-      <c r="BD19" s="145"/>
-      <c r="BE19" s="145"/>
-      <c r="BF19" s="145"/>
-      <c r="BG19" s="145"/>
-      <c r="BH19" s="145"/>
-      <c r="BI19" s="145"/>
-      <c r="BJ19" s="145"/>
-      <c r="BK19" s="145"/>
-      <c r="BL19" s="145"/>
-      <c r="BM19" s="145"/>
-      <c r="BN19" s="145"/>
-      <c r="BO19" s="145"/>
-      <c r="BP19" s="145"/>
-      <c r="BQ19" s="145"/>
-      <c r="BR19" s="145"/>
-      <c r="BS19" s="145"/>
-      <c r="BT19" s="146"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="157"/>
+      <c r="AB19" s="157"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="157"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="157"/>
+      <c r="AM19" s="157"/>
+      <c r="AN19" s="157"/>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="157"/>
+      <c r="AQ19" s="157"/>
+      <c r="AR19" s="157"/>
+      <c r="AS19" s="157"/>
+      <c r="AT19" s="157"/>
+      <c r="AU19" s="157"/>
+      <c r="AV19" s="157"/>
+      <c r="AW19" s="157"/>
+      <c r="AX19" s="157"/>
+      <c r="AY19" s="157"/>
+      <c r="AZ19" s="157"/>
+      <c r="BA19" s="157"/>
+      <c r="BB19" s="157"/>
+      <c r="BC19" s="157"/>
+      <c r="BD19" s="157"/>
+      <c r="BE19" s="157"/>
+      <c r="BF19" s="157"/>
+      <c r="BG19" s="157"/>
+      <c r="BH19" s="157"/>
+      <c r="BI19" s="157"/>
+      <c r="BJ19" s="157"/>
+      <c r="BK19" s="157"/>
+      <c r="BL19" s="157"/>
+      <c r="BM19" s="157"/>
+      <c r="BN19" s="157"/>
+      <c r="BO19" s="157"/>
+      <c r="BP19" s="157"/>
+      <c r="BQ19" s="157"/>
+      <c r="BR19" s="157"/>
+      <c r="BS19" s="157"/>
+      <c r="BT19" s="158"/>
       <c r="BU19" s="42"/>
     </row>
     <row r="20" spans="2:73" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3457,80 +3457,80 @@
       <c r="BU24" s="42"/>
     </row>
     <row r="25" spans="2:73" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="147" t="s">
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="148"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="148"/>
-      <c r="AJ25" s="148"/>
-      <c r="AK25" s="148"/>
-      <c r="AL25" s="148"/>
-      <c r="AM25" s="148"/>
-      <c r="AN25" s="148"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="148"/>
-      <c r="AS25" s="148"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="148"/>
-      <c r="AX25" s="148"/>
-      <c r="AY25" s="148"/>
-      <c r="AZ25" s="148"/>
-      <c r="BA25" s="148"/>
-      <c r="BB25" s="148"/>
-      <c r="BC25" s="148"/>
-      <c r="BD25" s="148"/>
-      <c r="BE25" s="148"/>
-      <c r="BF25" s="148"/>
-      <c r="BG25" s="148"/>
-      <c r="BH25" s="148"/>
-      <c r="BI25" s="148"/>
-      <c r="BJ25" s="148"/>
-      <c r="BK25" s="148"/>
-      <c r="BL25" s="148"/>
-      <c r="BM25" s="148"/>
-      <c r="BN25" s="148"/>
-      <c r="BO25" s="148"/>
-      <c r="BP25" s="148"/>
-      <c r="BQ25" s="148"/>
-      <c r="BR25" s="148"/>
-      <c r="BS25" s="148"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="147"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="147"/>
+      <c r="AJ25" s="147"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="147"/>
+      <c r="AM25" s="147"/>
+      <c r="AN25" s="147"/>
+      <c r="AO25" s="147"/>
+      <c r="AP25" s="147"/>
+      <c r="AQ25" s="147"/>
+      <c r="AR25" s="147"/>
+      <c r="AS25" s="147"/>
+      <c r="AT25" s="147"/>
+      <c r="AU25" s="147"/>
+      <c r="AV25" s="147"/>
+      <c r="AW25" s="147"/>
+      <c r="AX25" s="147"/>
+      <c r="AY25" s="147"/>
+      <c r="AZ25" s="147"/>
+      <c r="BA25" s="147"/>
+      <c r="BB25" s="147"/>
+      <c r="BC25" s="147"/>
+      <c r="BD25" s="147"/>
+      <c r="BE25" s="147"/>
+      <c r="BF25" s="147"/>
+      <c r="BG25" s="147"/>
+      <c r="BH25" s="147"/>
+      <c r="BI25" s="147"/>
+      <c r="BJ25" s="147"/>
+      <c r="BK25" s="147"/>
+      <c r="BL25" s="147"/>
+      <c r="BM25" s="147"/>
+      <c r="BN25" s="147"/>
+      <c r="BO25" s="147"/>
+      <c r="BP25" s="147"/>
+      <c r="BQ25" s="147"/>
+      <c r="BR25" s="147"/>
+      <c r="BS25" s="147"/>
       <c r="BT25" s="149"/>
     </row>
     <row r="26" spans="2:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,29 +4231,29 @@
       <c r="BT37" s="43"/>
     </row>
     <row r="38" spans="2:72" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="146"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="158"/>
       <c r="W38" s="57"/>
       <c r="X38" s="73" t="s">
         <v>87</v>
@@ -5020,78 +5020,78 @@
       <c r="BT50" s="68"/>
     </row>
     <row r="51" spans="1:83" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="147" t="s">
+      <c r="B51" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
-      <c r="N51" s="148"/>
-      <c r="O51" s="148"/>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="148"/>
-      <c r="R51" s="148"/>
-      <c r="S51" s="148"/>
-      <c r="T51" s="148"/>
-      <c r="U51" s="148"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
-      <c r="AD51" s="148"/>
-      <c r="AE51" s="148"/>
-      <c r="AF51" s="148"/>
-      <c r="AG51" s="148"/>
-      <c r="AH51" s="148"/>
-      <c r="AI51" s="148"/>
-      <c r="AJ51" s="148"/>
-      <c r="AK51" s="148"/>
-      <c r="AL51" s="148"/>
-      <c r="AM51" s="148"/>
-      <c r="AN51" s="148"/>
-      <c r="AO51" s="148"/>
-      <c r="AP51" s="148"/>
-      <c r="AQ51" s="148"/>
-      <c r="AR51" s="148"/>
-      <c r="AS51" s="148"/>
-      <c r="AT51" s="148"/>
-      <c r="AU51" s="148"/>
-      <c r="AV51" s="148"/>
-      <c r="AW51" s="148"/>
-      <c r="AX51" s="148"/>
-      <c r="AY51" s="148"/>
-      <c r="AZ51" s="148"/>
-      <c r="BA51" s="148"/>
-      <c r="BB51" s="148"/>
-      <c r="BC51" s="148"/>
-      <c r="BD51" s="148"/>
-      <c r="BE51" s="148"/>
-      <c r="BF51" s="148"/>
-      <c r="BG51" s="148"/>
-      <c r="BH51" s="148"/>
-      <c r="BI51" s="148"/>
-      <c r="BJ51" s="148"/>
-      <c r="BK51" s="148"/>
-      <c r="BL51" s="148"/>
-      <c r="BM51" s="148"/>
-      <c r="BN51" s="148"/>
-      <c r="BO51" s="148"/>
-      <c r="BP51" s="148"/>
-      <c r="BQ51" s="148"/>
-      <c r="BR51" s="148"/>
-      <c r="BS51" s="148"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="147"/>
+      <c r="U51" s="147"/>
+      <c r="V51" s="147"/>
+      <c r="W51" s="147"/>
+      <c r="X51" s="147"/>
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="147"/>
+      <c r="AA51" s="147"/>
+      <c r="AB51" s="147"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="147"/>
+      <c r="AE51" s="147"/>
+      <c r="AF51" s="147"/>
+      <c r="AG51" s="147"/>
+      <c r="AH51" s="147"/>
+      <c r="AI51" s="147"/>
+      <c r="AJ51" s="147"/>
+      <c r="AK51" s="147"/>
+      <c r="AL51" s="147"/>
+      <c r="AM51" s="147"/>
+      <c r="AN51" s="147"/>
+      <c r="AO51" s="147"/>
+      <c r="AP51" s="147"/>
+      <c r="AQ51" s="147"/>
+      <c r="AR51" s="147"/>
+      <c r="AS51" s="147"/>
+      <c r="AT51" s="147"/>
+      <c r="AU51" s="147"/>
+      <c r="AV51" s="147"/>
+      <c r="AW51" s="147"/>
+      <c r="AX51" s="147"/>
+      <c r="AY51" s="147"/>
+      <c r="AZ51" s="147"/>
+      <c r="BA51" s="147"/>
+      <c r="BB51" s="147"/>
+      <c r="BC51" s="147"/>
+      <c r="BD51" s="147"/>
+      <c r="BE51" s="147"/>
+      <c r="BF51" s="147"/>
+      <c r="BG51" s="147"/>
+      <c r="BH51" s="147"/>
+      <c r="BI51" s="147"/>
+      <c r="BJ51" s="147"/>
+      <c r="BK51" s="147"/>
+      <c r="BL51" s="147"/>
+      <c r="BM51" s="147"/>
+      <c r="BN51" s="147"/>
+      <c r="BO51" s="147"/>
+      <c r="BP51" s="147"/>
+      <c r="BQ51" s="147"/>
+      <c r="BR51" s="147"/>
+      <c r="BS51" s="147"/>
       <c r="BT51" s="149"/>
       <c r="BU51" s="59"/>
       <c r="BV51" s="59"/>
@@ -5457,79 +5457,79 @@
       <c r="CE58" s="3"/>
     </row>
     <row r="59" spans="1:83" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-      <c r="L59" s="163"/>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="163"/>
-      <c r="Q59" s="163"/>
-      <c r="R59" s="163"/>
-      <c r="S59" s="163"/>
-      <c r="T59" s="163"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="163"/>
-      <c r="X59" s="163"/>
-      <c r="Y59" s="163"/>
-      <c r="Z59" s="163"/>
-      <c r="AA59" s="163"/>
-      <c r="AB59" s="163"/>
-      <c r="AC59" s="163"/>
-      <c r="AD59" s="163"/>
-      <c r="AE59" s="163"/>
-      <c r="AF59" s="163"/>
-      <c r="AG59" s="163"/>
-      <c r="AH59" s="163"/>
-      <c r="AI59" s="163"/>
-      <c r="AJ59" s="163"/>
-      <c r="AK59" s="163"/>
-      <c r="AL59" s="163"/>
-      <c r="AM59" s="163"/>
-      <c r="AN59" s="163"/>
-      <c r="AO59" s="163"/>
-      <c r="AP59" s="163"/>
-      <c r="AQ59" s="163"/>
-      <c r="AR59" s="163"/>
-      <c r="AS59" s="163"/>
-      <c r="AT59" s="163"/>
-      <c r="AU59" s="163"/>
-      <c r="AV59" s="163"/>
-      <c r="AW59" s="163"/>
-      <c r="AX59" s="163"/>
-      <c r="AY59" s="163"/>
-      <c r="AZ59" s="163"/>
-      <c r="BA59" s="163"/>
-      <c r="BB59" s="163"/>
-      <c r="BC59" s="163"/>
-      <c r="BD59" s="163"/>
-      <c r="BE59" s="163"/>
-      <c r="BF59" s="163"/>
-      <c r="BG59" s="163"/>
-      <c r="BH59" s="163"/>
-      <c r="BI59" s="163"/>
-      <c r="BJ59" s="163"/>
-      <c r="BK59" s="163"/>
-      <c r="BL59" s="163"/>
-      <c r="BM59" s="163"/>
-      <c r="BN59" s="163"/>
-      <c r="BO59" s="163"/>
-      <c r="BP59" s="163"/>
-      <c r="BQ59" s="163"/>
-      <c r="BR59" s="163"/>
-      <c r="BS59" s="163"/>
-      <c r="BT59" s="164"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="151"/>
+      <c r="K59" s="151"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="151"/>
+      <c r="N59" s="151"/>
+      <c r="O59" s="151"/>
+      <c r="P59" s="151"/>
+      <c r="Q59" s="151"/>
+      <c r="R59" s="151"/>
+      <c r="S59" s="151"/>
+      <c r="T59" s="151"/>
+      <c r="U59" s="151"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="151"/>
+      <c r="Y59" s="151"/>
+      <c r="Z59" s="151"/>
+      <c r="AA59" s="151"/>
+      <c r="AB59" s="151"/>
+      <c r="AC59" s="151"/>
+      <c r="AD59" s="151"/>
+      <c r="AE59" s="151"/>
+      <c r="AF59" s="151"/>
+      <c r="AG59" s="151"/>
+      <c r="AH59" s="151"/>
+      <c r="AI59" s="151"/>
+      <c r="AJ59" s="151"/>
+      <c r="AK59" s="151"/>
+      <c r="AL59" s="151"/>
+      <c r="AM59" s="151"/>
+      <c r="AN59" s="151"/>
+      <c r="AO59" s="151"/>
+      <c r="AP59" s="151"/>
+      <c r="AQ59" s="151"/>
+      <c r="AR59" s="151"/>
+      <c r="AS59" s="151"/>
+      <c r="AT59" s="151"/>
+      <c r="AU59" s="151"/>
+      <c r="AV59" s="151"/>
+      <c r="AW59" s="151"/>
+      <c r="AX59" s="151"/>
+      <c r="AY59" s="151"/>
+      <c r="AZ59" s="151"/>
+      <c r="BA59" s="151"/>
+      <c r="BB59" s="151"/>
+      <c r="BC59" s="151"/>
+      <c r="BD59" s="151"/>
+      <c r="BE59" s="151"/>
+      <c r="BF59" s="151"/>
+      <c r="BG59" s="151"/>
+      <c r="BH59" s="151"/>
+      <c r="BI59" s="151"/>
+      <c r="BJ59" s="151"/>
+      <c r="BK59" s="151"/>
+      <c r="BL59" s="151"/>
+      <c r="BM59" s="151"/>
+      <c r="BN59" s="151"/>
+      <c r="BO59" s="151"/>
+      <c r="BP59" s="151"/>
+      <c r="BQ59" s="151"/>
+      <c r="BR59" s="151"/>
+      <c r="BS59" s="151"/>
+      <c r="BT59" s="152"/>
       <c r="BU59" s="59"/>
       <c r="BV59" s="59"/>
       <c r="BW59" s="59"/>
@@ -5738,79 +5738,79 @@
       <c r="BY62" s="59"/>
     </row>
     <row r="63" spans="1:83" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="162" t="s">
+      <c r="B63" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163"/>
-      <c r="K63" s="163"/>
-      <c r="L63" s="163"/>
-      <c r="M63" s="163"/>
-      <c r="N63" s="163"/>
-      <c r="O63" s="163"/>
-      <c r="P63" s="163"/>
-      <c r="Q63" s="163"/>
-      <c r="R63" s="163"/>
-      <c r="S63" s="163"/>
-      <c r="T63" s="163"/>
-      <c r="U63" s="163"/>
-      <c r="V63" s="163"/>
-      <c r="W63" s="163"/>
-      <c r="X63" s="163"/>
-      <c r="Y63" s="163"/>
-      <c r="Z63" s="163"/>
-      <c r="AA63" s="163"/>
-      <c r="AB63" s="163"/>
-      <c r="AC63" s="163"/>
-      <c r="AD63" s="163"/>
-      <c r="AE63" s="163"/>
-      <c r="AF63" s="163"/>
-      <c r="AG63" s="163"/>
-      <c r="AH63" s="163"/>
-      <c r="AI63" s="163"/>
-      <c r="AJ63" s="163"/>
-      <c r="AK63" s="163"/>
-      <c r="AL63" s="163"/>
-      <c r="AM63" s="163"/>
-      <c r="AN63" s="163"/>
-      <c r="AO63" s="163"/>
-      <c r="AP63" s="163"/>
-      <c r="AQ63" s="163"/>
-      <c r="AR63" s="163"/>
-      <c r="AS63" s="163"/>
-      <c r="AT63" s="163"/>
-      <c r="AU63" s="163"/>
-      <c r="AV63" s="163"/>
-      <c r="AW63" s="163"/>
-      <c r="AX63" s="163"/>
-      <c r="AY63" s="163"/>
-      <c r="AZ63" s="163"/>
-      <c r="BA63" s="163"/>
-      <c r="BB63" s="163"/>
-      <c r="BC63" s="163"/>
-      <c r="BD63" s="163"/>
-      <c r="BE63" s="163"/>
-      <c r="BF63" s="163"/>
-      <c r="BG63" s="163"/>
-      <c r="BH63" s="163"/>
-      <c r="BI63" s="163"/>
-      <c r="BJ63" s="163"/>
-      <c r="BK63" s="163"/>
-      <c r="BL63" s="163"/>
-      <c r="BM63" s="163"/>
-      <c r="BN63" s="163"/>
-      <c r="BO63" s="163"/>
-      <c r="BP63" s="163"/>
-      <c r="BQ63" s="163"/>
-      <c r="BR63" s="163"/>
-      <c r="BS63" s="163"/>
-      <c r="BT63" s="164"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="151"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="151"/>
+      <c r="M63" s="151"/>
+      <c r="N63" s="151"/>
+      <c r="O63" s="151"/>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="151"/>
+      <c r="R63" s="151"/>
+      <c r="S63" s="151"/>
+      <c r="T63" s="151"/>
+      <c r="U63" s="151"/>
+      <c r="V63" s="151"/>
+      <c r="W63" s="151"/>
+      <c r="X63" s="151"/>
+      <c r="Y63" s="151"/>
+      <c r="Z63" s="151"/>
+      <c r="AA63" s="151"/>
+      <c r="AB63" s="151"/>
+      <c r="AC63" s="151"/>
+      <c r="AD63" s="151"/>
+      <c r="AE63" s="151"/>
+      <c r="AF63" s="151"/>
+      <c r="AG63" s="151"/>
+      <c r="AH63" s="151"/>
+      <c r="AI63" s="151"/>
+      <c r="AJ63" s="151"/>
+      <c r="AK63" s="151"/>
+      <c r="AL63" s="151"/>
+      <c r="AM63" s="151"/>
+      <c r="AN63" s="151"/>
+      <c r="AO63" s="151"/>
+      <c r="AP63" s="151"/>
+      <c r="AQ63" s="151"/>
+      <c r="AR63" s="151"/>
+      <c r="AS63" s="151"/>
+      <c r="AT63" s="151"/>
+      <c r="AU63" s="151"/>
+      <c r="AV63" s="151"/>
+      <c r="AW63" s="151"/>
+      <c r="AX63" s="151"/>
+      <c r="AY63" s="151"/>
+      <c r="AZ63" s="151"/>
+      <c r="BA63" s="151"/>
+      <c r="BB63" s="151"/>
+      <c r="BC63" s="151"/>
+      <c r="BD63" s="151"/>
+      <c r="BE63" s="151"/>
+      <c r="BF63" s="151"/>
+      <c r="BG63" s="151"/>
+      <c r="BH63" s="151"/>
+      <c r="BI63" s="151"/>
+      <c r="BJ63" s="151"/>
+      <c r="BK63" s="151"/>
+      <c r="BL63" s="151"/>
+      <c r="BM63" s="151"/>
+      <c r="BN63" s="151"/>
+      <c r="BO63" s="151"/>
+      <c r="BP63" s="151"/>
+      <c r="BQ63" s="151"/>
+      <c r="BR63" s="151"/>
+      <c r="BS63" s="151"/>
+      <c r="BT63" s="152"/>
       <c r="BU63" s="59"/>
       <c r="BV63" s="59"/>
       <c r="BW63" s="59"/>
@@ -8454,79 +8454,79 @@
       <c r="BY96" s="59"/>
     </row>
     <row r="97" spans="2:77" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="165" t="s">
+      <c r="B97" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="166"/>
-      <c r="D97" s="166"/>
-      <c r="E97" s="166"/>
-      <c r="F97" s="166"/>
-      <c r="G97" s="166"/>
-      <c r="H97" s="166"/>
-      <c r="I97" s="166"/>
-      <c r="J97" s="166"/>
-      <c r="K97" s="166"/>
-      <c r="L97" s="166"/>
-      <c r="M97" s="166"/>
-      <c r="N97" s="166"/>
-      <c r="O97" s="166"/>
-      <c r="P97" s="166"/>
-      <c r="Q97" s="166"/>
-      <c r="R97" s="166"/>
-      <c r="S97" s="166"/>
-      <c r="T97" s="166"/>
-      <c r="U97" s="166"/>
-      <c r="V97" s="166"/>
-      <c r="W97" s="166"/>
-      <c r="X97" s="166"/>
-      <c r="Y97" s="166"/>
-      <c r="Z97" s="166"/>
-      <c r="AA97" s="166"/>
-      <c r="AB97" s="166"/>
-      <c r="AC97" s="166"/>
-      <c r="AD97" s="166"/>
-      <c r="AE97" s="166"/>
-      <c r="AF97" s="166"/>
-      <c r="AG97" s="166"/>
-      <c r="AH97" s="166"/>
-      <c r="AI97" s="166"/>
-      <c r="AJ97" s="166"/>
-      <c r="AK97" s="166"/>
-      <c r="AL97" s="166"/>
-      <c r="AM97" s="166"/>
-      <c r="AN97" s="166"/>
-      <c r="AO97" s="166"/>
-      <c r="AP97" s="166"/>
-      <c r="AQ97" s="166"/>
-      <c r="AR97" s="166"/>
-      <c r="AS97" s="166"/>
-      <c r="AT97" s="166"/>
-      <c r="AU97" s="166"/>
-      <c r="AV97" s="166"/>
-      <c r="AW97" s="166"/>
-      <c r="AX97" s="166"/>
-      <c r="AY97" s="166"/>
-      <c r="AZ97" s="166"/>
-      <c r="BA97" s="166"/>
-      <c r="BB97" s="166"/>
-      <c r="BC97" s="166"/>
-      <c r="BD97" s="166"/>
-      <c r="BE97" s="166"/>
-      <c r="BF97" s="166"/>
-      <c r="BG97" s="166"/>
-      <c r="BH97" s="166"/>
-      <c r="BI97" s="166"/>
-      <c r="BJ97" s="166"/>
-      <c r="BK97" s="166"/>
-      <c r="BL97" s="166"/>
-      <c r="BM97" s="166"/>
-      <c r="BN97" s="166"/>
-      <c r="BO97" s="166"/>
-      <c r="BP97" s="166"/>
-      <c r="BQ97" s="166"/>
-      <c r="BR97" s="166"/>
-      <c r="BS97" s="166"/>
-      <c r="BT97" s="167"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+      <c r="R97" s="154"/>
+      <c r="S97" s="154"/>
+      <c r="T97" s="154"/>
+      <c r="U97" s="154"/>
+      <c r="V97" s="154"/>
+      <c r="W97" s="154"/>
+      <c r="X97" s="154"/>
+      <c r="Y97" s="154"/>
+      <c r="Z97" s="154"/>
+      <c r="AA97" s="154"/>
+      <c r="AB97" s="154"/>
+      <c r="AC97" s="154"/>
+      <c r="AD97" s="154"/>
+      <c r="AE97" s="154"/>
+      <c r="AF97" s="154"/>
+      <c r="AG97" s="154"/>
+      <c r="AH97" s="154"/>
+      <c r="AI97" s="154"/>
+      <c r="AJ97" s="154"/>
+      <c r="AK97" s="154"/>
+      <c r="AL97" s="154"/>
+      <c r="AM97" s="154"/>
+      <c r="AN97" s="154"/>
+      <c r="AO97" s="154"/>
+      <c r="AP97" s="154"/>
+      <c r="AQ97" s="154"/>
+      <c r="AR97" s="154"/>
+      <c r="AS97" s="154"/>
+      <c r="AT97" s="154"/>
+      <c r="AU97" s="154"/>
+      <c r="AV97" s="154"/>
+      <c r="AW97" s="154"/>
+      <c r="AX97" s="154"/>
+      <c r="AY97" s="154"/>
+      <c r="AZ97" s="154"/>
+      <c r="BA97" s="154"/>
+      <c r="BB97" s="154"/>
+      <c r="BC97" s="154"/>
+      <c r="BD97" s="154"/>
+      <c r="BE97" s="154"/>
+      <c r="BF97" s="154"/>
+      <c r="BG97" s="154"/>
+      <c r="BH97" s="154"/>
+      <c r="BI97" s="154"/>
+      <c r="BJ97" s="154"/>
+      <c r="BK97" s="154"/>
+      <c r="BL97" s="154"/>
+      <c r="BM97" s="154"/>
+      <c r="BN97" s="154"/>
+      <c r="BO97" s="154"/>
+      <c r="BP97" s="154"/>
+      <c r="BQ97" s="154"/>
+      <c r="BR97" s="154"/>
+      <c r="BS97" s="154"/>
+      <c r="BT97" s="155"/>
       <c r="BU97" s="59"/>
       <c r="BV97" s="59"/>
       <c r="BW97" s="59"/>
@@ -8755,8 +8755,10 @@
     </row>
     <row r="101" spans="2:77" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="57"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="71"/>
+      <c r="C101" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="59"/>
       <c r="E101" s="71"/>
       <c r="F101" s="71"/>
       <c r="G101" s="71"/>
@@ -8827,7 +8829,7 @@
     </row>
     <row r="102" spans="2:77" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="57"/>
-      <c r="C102" s="42"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -8900,8 +8902,10 @@
     </row>
     <row r="103" spans="2:77" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="57"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="71"/>
+      <c r="C103" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="59"/>
       <c r="E103" s="71"/>
       <c r="F103" s="71"/>
       <c r="G103" s="71"/>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="104" spans="2:77" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="57"/>
-      <c r="C104" s="42"/>
+      <c r="C104" s="105"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -9045,8 +9049,10 @@
     </row>
     <row r="105" spans="2:77" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="57"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="71"/>
+      <c r="C105" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="59"/>
       <c r="E105" s="71"/>
       <c r="F105" s="71"/>
       <c r="G105" s="71"/>
@@ -9117,7 +9123,7 @@
     </row>
     <row r="106" spans="2:77" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="57"/>
-      <c r="C106" s="42"/>
+      <c r="C106" s="105"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -9190,8 +9196,10 @@
     </row>
     <row r="107" spans="2:77" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="57"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="71"/>
+      <c r="C107" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="59"/>
       <c r="E107" s="71"/>
       <c r="F107" s="71"/>
       <c r="G107" s="71"/>
@@ -9262,7 +9270,7 @@
     </row>
     <row r="108" spans="2:77" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="57"/>
-      <c r="C108" s="42"/>
+      <c r="C108" s="105"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -9335,8 +9343,10 @@
     </row>
     <row r="109" spans="2:77" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="57"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="71"/>
+      <c r="C109" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="59"/>
       <c r="E109" s="71"/>
       <c r="F109" s="71"/>
       <c r="G109" s="71"/>
@@ -9407,7 +9417,7 @@
     </row>
     <row r="110" spans="2:77" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="57"/>
-      <c r="C110" s="42"/>
+      <c r="C110" s="105"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -9480,8 +9490,10 @@
     </row>
     <row r="111" spans="2:77" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="57"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="71"/>
+      <c r="C111" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="59"/>
       <c r="E111" s="71"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
@@ -9552,7 +9564,7 @@
     </row>
     <row r="112" spans="2:77" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="57"/>
-      <c r="C112" s="42"/>
+      <c r="C112" s="105"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -9625,8 +9637,10 @@
     </row>
     <row r="113" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="57"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="71"/>
+      <c r="C113" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="59"/>
       <c r="E113" s="71"/>
       <c r="F113" s="71"/>
       <c r="G113" s="71"/>
@@ -9697,7 +9711,7 @@
     </row>
     <row r="114" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="57"/>
-      <c r="C114" s="42"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -9770,8 +9784,10 @@
     </row>
     <row r="115" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="57"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="71"/>
+      <c r="C115" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="59"/>
       <c r="E115" s="71"/>
       <c r="F115" s="71"/>
       <c r="G115" s="71"/>
@@ -9842,7 +9858,7 @@
     </row>
     <row r="116" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="57"/>
-      <c r="C116" s="42"/>
+      <c r="C116" s="105"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -9915,8 +9931,10 @@
     </row>
     <row r="117" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="57"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="71"/>
+      <c r="C117" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="59"/>
       <c r="E117" s="71"/>
       <c r="F117" s="71"/>
       <c r="G117" s="71"/>
@@ -9987,7 +10005,7 @@
     </row>
     <row r="118" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="57"/>
-      <c r="C118" s="42"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -10060,8 +10078,10 @@
     </row>
     <row r="119" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="57"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="71"/>
+      <c r="C119" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="59"/>
       <c r="E119" s="71"/>
       <c r="F119" s="71"/>
       <c r="G119" s="71"/>
@@ -10132,7 +10152,6 @@
     </row>
     <row r="120" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="57"/>
-      <c r="C120" s="42"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -10205,8 +10224,10 @@
     </row>
     <row r="121" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="57"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="71"/>
+      <c r="C121" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="59"/>
       <c r="E121" s="71"/>
       <c r="F121" s="71"/>
       <c r="G121" s="71"/>
@@ -10277,7 +10298,7 @@
     </row>
     <row r="122" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="57"/>
-      <c r="C122" s="42"/>
+      <c r="C122" s="136"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -10350,8 +10371,10 @@
     </row>
     <row r="123" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="57"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="71"/>
+      <c r="C123" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="59"/>
       <c r="E123" s="71"/>
       <c r="F123" s="71"/>
       <c r="G123" s="71"/>
@@ -10422,7 +10445,7 @@
     </row>
     <row r="124" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="57"/>
-      <c r="C124" s="42"/>
+      <c r="C124" s="105"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -10495,8 +10518,10 @@
     </row>
     <row r="125" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="57"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="71"/>
+      <c r="C125" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="59"/>
       <c r="E125" s="71"/>
       <c r="F125" s="71"/>
       <c r="G125" s="71"/>
@@ -10567,7 +10592,7 @@
     </row>
     <row r="126" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="57"/>
-      <c r="C126" s="42"/>
+      <c r="C126" s="105"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -10640,8 +10665,10 @@
     </row>
     <row r="127" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="57"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="71"/>
+      <c r="C127" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="59"/>
       <c r="E127" s="71"/>
       <c r="F127" s="71"/>
       <c r="G127" s="71"/>
@@ -10785,8 +10812,10 @@
     </row>
     <row r="129" spans="1:78" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="57"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="71"/>
+      <c r="C129" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" s="59"/>
       <c r="E129" s="71"/>
       <c r="F129" s="71"/>
       <c r="G129" s="71"/>
@@ -11036,8 +11065,8 @@
       <c r="BB132" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BD132" s="159"/>
-      <c r="BE132" s="160"/>
+      <c r="BD132" s="144"/>
+      <c r="BE132" s="145"/>
       <c r="BH132" s="3" t="s">
         <v>69</v>
       </c>
@@ -11045,8 +11074,8 @@
       <c r="BL132" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BP132" s="159"/>
-      <c r="BQ132" s="160"/>
+      <c r="BP132" s="144"/>
+      <c r="BQ132" s="145"/>
       <c r="BR132" s="59"/>
       <c r="BS132" s="42"/>
       <c r="BT132" s="53"/>
@@ -11102,8 +11131,8 @@
       <c r="BB133" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BD133" s="159"/>
-      <c r="BE133" s="160"/>
+      <c r="BD133" s="144"/>
+      <c r="BE133" s="145"/>
       <c r="BH133" s="3" t="s">
         <v>69</v>
       </c>
@@ -11111,8 +11140,8 @@
       <c r="BL133" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BP133" s="159"/>
-      <c r="BQ133" s="160"/>
+      <c r="BP133" s="144"/>
+      <c r="BQ133" s="145"/>
       <c r="BR133" s="59"/>
       <c r="BS133" s="42"/>
       <c r="BT133" s="53"/>
@@ -11172,79 +11201,79 @@
       <c r="BT134" s="53"/>
     </row>
     <row r="135" spans="1:78" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="162" t="s">
+      <c r="B135" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="163"/>
-      <c r="D135" s="163"/>
-      <c r="E135" s="163"/>
-      <c r="F135" s="163"/>
-      <c r="G135" s="163"/>
-      <c r="H135" s="163"/>
-      <c r="I135" s="163"/>
-      <c r="J135" s="163"/>
-      <c r="K135" s="163"/>
-      <c r="L135" s="163"/>
-      <c r="M135" s="163"/>
-      <c r="N135" s="163"/>
-      <c r="O135" s="163"/>
-      <c r="P135" s="163"/>
-      <c r="Q135" s="163"/>
-      <c r="R135" s="163"/>
-      <c r="S135" s="163"/>
-      <c r="T135" s="163"/>
-      <c r="U135" s="163"/>
-      <c r="V135" s="163"/>
-      <c r="W135" s="163"/>
-      <c r="X135" s="163"/>
-      <c r="Y135" s="163"/>
-      <c r="Z135" s="163"/>
-      <c r="AA135" s="163"/>
-      <c r="AB135" s="163"/>
-      <c r="AC135" s="163"/>
-      <c r="AD135" s="163"/>
-      <c r="AE135" s="163"/>
-      <c r="AF135" s="163"/>
-      <c r="AG135" s="163"/>
-      <c r="AH135" s="163"/>
-      <c r="AI135" s="163"/>
-      <c r="AJ135" s="163"/>
-      <c r="AK135" s="163"/>
-      <c r="AL135" s="163"/>
-      <c r="AM135" s="163"/>
-      <c r="AN135" s="163"/>
-      <c r="AO135" s="163"/>
-      <c r="AP135" s="163"/>
-      <c r="AQ135" s="163"/>
-      <c r="AR135" s="163"/>
-      <c r="AS135" s="163"/>
-      <c r="AT135" s="163"/>
-      <c r="AU135" s="163"/>
-      <c r="AV135" s="163"/>
-      <c r="AW135" s="163"/>
-      <c r="AX135" s="163"/>
-      <c r="AY135" s="163"/>
-      <c r="AZ135" s="163"/>
-      <c r="BA135" s="163"/>
-      <c r="BB135" s="163"/>
-      <c r="BC135" s="163"/>
-      <c r="BD135" s="163"/>
-      <c r="BE135" s="163"/>
-      <c r="BF135" s="163"/>
-      <c r="BG135" s="163"/>
-      <c r="BH135" s="163"/>
-      <c r="BI135" s="163"/>
-      <c r="BJ135" s="163"/>
-      <c r="BK135" s="163"/>
-      <c r="BL135" s="163"/>
-      <c r="BM135" s="163"/>
-      <c r="BN135" s="163"/>
-      <c r="BO135" s="163"/>
-      <c r="BP135" s="163"/>
-      <c r="BQ135" s="163"/>
-      <c r="BR135" s="163"/>
-      <c r="BS135" s="163"/>
-      <c r="BT135" s="164"/>
+      <c r="C135" s="151"/>
+      <c r="D135" s="151"/>
+      <c r="E135" s="151"/>
+      <c r="F135" s="151"/>
+      <c r="G135" s="151"/>
+      <c r="H135" s="151"/>
+      <c r="I135" s="151"/>
+      <c r="J135" s="151"/>
+      <c r="K135" s="151"/>
+      <c r="L135" s="151"/>
+      <c r="M135" s="151"/>
+      <c r="N135" s="151"/>
+      <c r="O135" s="151"/>
+      <c r="P135" s="151"/>
+      <c r="Q135" s="151"/>
+      <c r="R135" s="151"/>
+      <c r="S135" s="151"/>
+      <c r="T135" s="151"/>
+      <c r="U135" s="151"/>
+      <c r="V135" s="151"/>
+      <c r="W135" s="151"/>
+      <c r="X135" s="151"/>
+      <c r="Y135" s="151"/>
+      <c r="Z135" s="151"/>
+      <c r="AA135" s="151"/>
+      <c r="AB135" s="151"/>
+      <c r="AC135" s="151"/>
+      <c r="AD135" s="151"/>
+      <c r="AE135" s="151"/>
+      <c r="AF135" s="151"/>
+      <c r="AG135" s="151"/>
+      <c r="AH135" s="151"/>
+      <c r="AI135" s="151"/>
+      <c r="AJ135" s="151"/>
+      <c r="AK135" s="151"/>
+      <c r="AL135" s="151"/>
+      <c r="AM135" s="151"/>
+      <c r="AN135" s="151"/>
+      <c r="AO135" s="151"/>
+      <c r="AP135" s="151"/>
+      <c r="AQ135" s="151"/>
+      <c r="AR135" s="151"/>
+      <c r="AS135" s="151"/>
+      <c r="AT135" s="151"/>
+      <c r="AU135" s="151"/>
+      <c r="AV135" s="151"/>
+      <c r="AW135" s="151"/>
+      <c r="AX135" s="151"/>
+      <c r="AY135" s="151"/>
+      <c r="AZ135" s="151"/>
+      <c r="BA135" s="151"/>
+      <c r="BB135" s="151"/>
+      <c r="BC135" s="151"/>
+      <c r="BD135" s="151"/>
+      <c r="BE135" s="151"/>
+      <c r="BF135" s="151"/>
+      <c r="BG135" s="151"/>
+      <c r="BH135" s="151"/>
+      <c r="BI135" s="151"/>
+      <c r="BJ135" s="151"/>
+      <c r="BK135" s="151"/>
+      <c r="BL135" s="151"/>
+      <c r="BM135" s="151"/>
+      <c r="BN135" s="151"/>
+      <c r="BO135" s="151"/>
+      <c r="BP135" s="151"/>
+      <c r="BQ135" s="151"/>
+      <c r="BR135" s="151"/>
+      <c r="BS135" s="151"/>
+      <c r="BT135" s="152"/>
       <c r="BU135" s="59"/>
       <c r="BV135" s="59"/>
       <c r="BW135" s="59"/>
@@ -12133,78 +12162,78 @@
       <c r="BT148" s="54"/>
     </row>
     <row r="149" spans="1:78" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="147" t="s">
+      <c r="B149" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="C149" s="148"/>
-      <c r="D149" s="148"/>
-      <c r="E149" s="148"/>
-      <c r="F149" s="148"/>
-      <c r="G149" s="148"/>
-      <c r="H149" s="148"/>
-      <c r="I149" s="148"/>
-      <c r="J149" s="148"/>
-      <c r="K149" s="148"/>
-      <c r="L149" s="148"/>
-      <c r="M149" s="148"/>
-      <c r="N149" s="148"/>
-      <c r="O149" s="148"/>
-      <c r="P149" s="148"/>
-      <c r="Q149" s="148"/>
-      <c r="R149" s="148"/>
-      <c r="S149" s="148"/>
-      <c r="T149" s="148"/>
-      <c r="U149" s="148"/>
-      <c r="V149" s="148"/>
-      <c r="W149" s="148"/>
-      <c r="X149" s="148"/>
-      <c r="Y149" s="148"/>
-      <c r="Z149" s="148"/>
-      <c r="AA149" s="148"/>
-      <c r="AB149" s="148"/>
-      <c r="AC149" s="148"/>
-      <c r="AD149" s="148"/>
-      <c r="AE149" s="148"/>
-      <c r="AF149" s="148"/>
-      <c r="AG149" s="148"/>
-      <c r="AH149" s="148"/>
-      <c r="AI149" s="148"/>
-      <c r="AJ149" s="148"/>
-      <c r="AK149" s="148"/>
-      <c r="AL149" s="148"/>
-      <c r="AM149" s="148"/>
-      <c r="AN149" s="148"/>
-      <c r="AO149" s="148"/>
-      <c r="AP149" s="148"/>
-      <c r="AQ149" s="148"/>
-      <c r="AR149" s="148"/>
-      <c r="AS149" s="148"/>
-      <c r="AT149" s="148"/>
-      <c r="AU149" s="148"/>
-      <c r="AV149" s="148"/>
-      <c r="AW149" s="148"/>
-      <c r="AX149" s="148"/>
-      <c r="AY149" s="148"/>
-      <c r="AZ149" s="148"/>
-      <c r="BA149" s="148"/>
-      <c r="BB149" s="148"/>
-      <c r="BC149" s="148"/>
-      <c r="BD149" s="148"/>
-      <c r="BE149" s="161"/>
-      <c r="BF149" s="161"/>
-      <c r="BG149" s="161"/>
-      <c r="BH149" s="161"/>
-      <c r="BI149" s="161"/>
-      <c r="BJ149" s="161"/>
-      <c r="BK149" s="161"/>
-      <c r="BL149" s="161"/>
-      <c r="BM149" s="161"/>
-      <c r="BN149" s="161"/>
-      <c r="BO149" s="161"/>
-      <c r="BP149" s="148"/>
-      <c r="BQ149" s="148"/>
-      <c r="BR149" s="148"/>
-      <c r="BS149" s="148"/>
+      <c r="C149" s="147"/>
+      <c r="D149" s="147"/>
+      <c r="E149" s="147"/>
+      <c r="F149" s="147"/>
+      <c r="G149" s="147"/>
+      <c r="H149" s="147"/>
+      <c r="I149" s="147"/>
+      <c r="J149" s="147"/>
+      <c r="K149" s="147"/>
+      <c r="L149" s="147"/>
+      <c r="M149" s="147"/>
+      <c r="N149" s="147"/>
+      <c r="O149" s="147"/>
+      <c r="P149" s="147"/>
+      <c r="Q149" s="147"/>
+      <c r="R149" s="147"/>
+      <c r="S149" s="147"/>
+      <c r="T149" s="147"/>
+      <c r="U149" s="147"/>
+      <c r="V149" s="147"/>
+      <c r="W149" s="147"/>
+      <c r="X149" s="147"/>
+      <c r="Y149" s="147"/>
+      <c r="Z149" s="147"/>
+      <c r="AA149" s="147"/>
+      <c r="AB149" s="147"/>
+      <c r="AC149" s="147"/>
+      <c r="AD149" s="147"/>
+      <c r="AE149" s="147"/>
+      <c r="AF149" s="147"/>
+      <c r="AG149" s="147"/>
+      <c r="AH149" s="147"/>
+      <c r="AI149" s="147"/>
+      <c r="AJ149" s="147"/>
+      <c r="AK149" s="147"/>
+      <c r="AL149" s="147"/>
+      <c r="AM149" s="147"/>
+      <c r="AN149" s="147"/>
+      <c r="AO149" s="147"/>
+      <c r="AP149" s="147"/>
+      <c r="AQ149" s="147"/>
+      <c r="AR149" s="147"/>
+      <c r="AS149" s="147"/>
+      <c r="AT149" s="147"/>
+      <c r="AU149" s="147"/>
+      <c r="AV149" s="147"/>
+      <c r="AW149" s="147"/>
+      <c r="AX149" s="147"/>
+      <c r="AY149" s="147"/>
+      <c r="AZ149" s="147"/>
+      <c r="BA149" s="147"/>
+      <c r="BB149" s="147"/>
+      <c r="BC149" s="147"/>
+      <c r="BD149" s="147"/>
+      <c r="BE149" s="148"/>
+      <c r="BF149" s="148"/>
+      <c r="BG149" s="148"/>
+      <c r="BH149" s="148"/>
+      <c r="BI149" s="148"/>
+      <c r="BJ149" s="148"/>
+      <c r="BK149" s="148"/>
+      <c r="BL149" s="148"/>
+      <c r="BM149" s="148"/>
+      <c r="BN149" s="148"/>
+      <c r="BO149" s="148"/>
+      <c r="BP149" s="147"/>
+      <c r="BQ149" s="147"/>
+      <c r="BR149" s="147"/>
+      <c r="BS149" s="147"/>
       <c r="BT149" s="149"/>
     </row>
     <row r="150" spans="1:78" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12434,6 +12463,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B38:V38"/>
+    <mergeCell ref="B51:BT51"/>
+    <mergeCell ref="AT3:BT7"/>
+    <mergeCell ref="B9:BT9"/>
+    <mergeCell ref="B19:BT19"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="W25:BT25"/>
     <mergeCell ref="BP132:BQ132"/>
     <mergeCell ref="BP133:BQ133"/>
     <mergeCell ref="B149:BT149"/>
@@ -12443,13 +12479,6 @@
     <mergeCell ref="B97:BT97"/>
     <mergeCell ref="BD132:BE132"/>
     <mergeCell ref="BD133:BE133"/>
-    <mergeCell ref="B38:V38"/>
-    <mergeCell ref="B51:BT51"/>
-    <mergeCell ref="AT3:BT7"/>
-    <mergeCell ref="B9:BT9"/>
-    <mergeCell ref="B19:BT19"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="W25:BT25"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
